--- a/Montana/WaterAllocation/MTwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Montana/WaterAllocation/MTwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24639F1A-DA43-43D6-936A-8BAB1C6A8991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31B5CA-4761-4208-A4D0-F9E33A1B8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -895,9 +895,6 @@
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montana Department of Natural Resources' (DNRC) </t>
   </si>
   <si>
     <t>POD and POU water right data.</t>
@@ -1039,6 +1036,12 @@
   </si>
   <si>
     <t>MAX_FLOW contains units of either CFS or GPM, &amp; will need to be stripped &amp; coverted first.</t>
+  </si>
+  <si>
+    <t>Will have to create a lat and long value for POU info in ArcGIS Pro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana Department of Natural Resources (DNRC) </t>
   </si>
 </sst>
 </file>
@@ -2122,9 +2125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2162,7 +2165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2268,7 +2271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2410,7 +2413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2422,7 +2425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,7 +2462,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>217</v>
@@ -2470,7 +2473,7 @@
         <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>273</v>
@@ -2505,19 +2508,22 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="66"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
       <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2650,7 +2656,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>37</v>
@@ -2685,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>37</v>
@@ -2825,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>37</v>
@@ -2860,7 +2866,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>37</v>
@@ -2895,7 +2901,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>37</v>
@@ -2963,7 +2969,7 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>37</v>
@@ -3105,7 +3111,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>37</v>
@@ -3564,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>37</v>
@@ -3599,7 +3605,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>37</v>
@@ -3634,7 +3640,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>37</v>
@@ -3669,7 +3675,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>37</v>
@@ -3704,7 +3710,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>37</v>
@@ -3739,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>37</v>
@@ -3774,7 +3780,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>37</v>
@@ -4111,7 +4117,7 @@
         <v>119</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I7" s="79" t="s">
         <v>37</v>
@@ -4140,7 +4146,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -4177,7 +4183,7 @@
         <v>119</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>37</v>
@@ -4387,7 +4393,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>37</v>
@@ -4422,7 +4428,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>37</v>
@@ -4455,7 +4461,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>37</v>
@@ -4494,7 +4500,7 @@
         <v>119</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I8" s="81" t="s">
         <v>37</v>
@@ -4559,7 +4565,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>46</v>
@@ -4673,10 +4679,10 @@
         <v>37</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>37</v>
@@ -4708,10 +4714,10 @@
         <v>37</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I15" s="81" t="s">
         <v>37</v>
@@ -4794,7 +4800,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="41"/>
@@ -4854,13 +4860,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>37</v>
@@ -4928,7 +4934,7 @@
         <v>119</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I22" s="81" t="s">
         <v>37</v>
@@ -5635,10 +5641,10 @@
         <v>37</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I20" s="68" t="s">
         <v>37</v>
@@ -5670,10 +5676,10 @@
         <v>37</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I21" s="68" t="s">
         <v>37</v>
@@ -5705,10 +5711,10 @@
         <v>37</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I22" s="68" t="s">
         <v>37</v>
@@ -5740,10 +5746,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="68" t="s">
         <v>37</v>
@@ -5775,10 +5781,10 @@
         <v>37</v>
       </c>
       <c r="G24" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>320</v>
       </c>
       <c r="I24" s="68" t="s">
         <v>37</v>
@@ -5807,13 +5813,13 @@
         <v>37</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I25" s="68" t="s">
         <v>37</v>
@@ -5840,13 +5846,13 @@
         <v>37</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I26" s="68" t="s">
         <v>37</v>
@@ -5876,10 +5882,10 @@
         <v>37</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I27" s="68" t="s">
         <v>37</v>
@@ -5909,10 +5915,10 @@
         <v>37</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I28" s="68" t="s">
         <v>37</v>
@@ -5944,10 +5950,10 @@
         <v>37</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I29" s="68" t="s">
         <v>37</v>
@@ -6178,10 +6184,10 @@
         <v>37</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I37" s="53" t="s">
         <v>37</v>
@@ -6211,10 +6217,10 @@
         <v>37</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I38" s="68" t="s">
         <v>37</v>
@@ -6420,10 +6426,10 @@
         <v>37</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I45" s="68" t="s">
         <v>37</v>

--- a/Montana/WaterAllocation/MTwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Montana/WaterAllocation/MTwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31B5CA-4761-4208-A4D0-F9E33A1B8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1986CA7-38D3-4ABC-85CF-9EEA4DC4A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -1027,14 +1027,6 @@
     <t>IRR_TYPE</t>
   </si>
   <si>
-    <t>PODV_ID_SEQ
--</t>
-  </si>
-  <si>
-    <t>-
-for POU, use row index.</t>
-  </si>
-  <si>
     <t>MAX_FLOW contains units of either CFS or GPM, &amp; will need to be stripped &amp; coverted first.</t>
   </si>
   <si>
@@ -1042,6 +1034,10 @@
   </si>
   <si>
     <t xml:space="preserve">Montana Department of Natural Resources (DNRC) </t>
+  </si>
+  <si>
+    <t>PODV_ID + WR Num
+'POU_ID + WR Num</t>
   </si>
 </sst>
 </file>
@@ -2423,9 +2419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2458,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>217</v>
@@ -2515,14 +2511,14 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" s="66"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" s="66"/>
     </row>
@@ -4225,9 +4221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,13 +4856,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>318</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>37</v>
